--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:A4"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,100 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Alicate de bico</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,102 +421,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:A7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +49,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -122,6 +126,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1590675" cy="733425"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,12 +442,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,18 +455,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>QTD</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Part Nº</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Descrição do Material</t>
+        </is>
+      </c>
+    </row>
     <row r="2"/>
     <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A1:A7"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>